--- a/database/AN_pp/expdata/3002.xlsx
+++ b/database/AN_pp/expdata/3002.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D211AC10-F94E-B149-8FD4-B1953CEF81A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F15CEC-6B89-624D-B478-3E535E7011A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16820" yWindow="5540" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9500" yWindow="5520" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -559,7 +549,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -604,8 +594,7 @@
     </row>
     <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f>AVERAGE(K2:L2)</f>
-        <v>0.21</v>
+        <v>0.20703099999999999</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -643,8 +632,7 @@
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A14" si="0">AVERAGE(K3:L3)</f>
-        <v>0.21</v>
+        <v>0.20703099999999999</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -682,8 +670,7 @@
     </row>
     <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.21</v>
+        <v>0.20703099999999999</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -721,8 +708,7 @@
     </row>
     <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.21</v>
+        <v>0.20703099999999999</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -760,8 +746,7 @@
     </row>
     <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.26452799999999999</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -799,8 +784,7 @@
     </row>
     <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.26452799999999999</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -838,8 +822,7 @@
     </row>
     <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.26452799999999999</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -877,8 +860,7 @@
     </row>
     <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.26452799999999999</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -916,8 +898,7 @@
     </row>
     <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.32481599999999999</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -955,8 +936,7 @@
     </row>
     <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.32481599999999999</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -994,8 +974,7 @@
     </row>
     <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.32481599999999999</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -1033,8 +1012,7 @@
     </row>
     <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.32481599999999999</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1072,8 +1050,7 @@
     </row>
     <row r="14" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.32481599999999999</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>

--- a/database/AN_pp/expdata/3002.xlsx
+++ b/database/AN_pp/expdata/3002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F15CEC-6B89-624D-B478-3E535E7011A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70EC385-1C03-F04E-BF61-FDECA3A0D5C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9500" yWindow="5520" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -931,7 +931,7 @@
         <v>0.3</v>
       </c>
       <c r="L10">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>0.3</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>0.3</v>
       </c>
       <c r="L12">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
         <v>0.3</v>
       </c>
       <c r="L13">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1083,7 +1083,7 @@
         <v>0.3</v>
       </c>
       <c r="L14">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/database/AN_pp/expdata/3002.xlsx
+++ b/database/AN_pp/expdata/3002.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70EC385-1C03-F04E-BF61-FDECA3A0D5C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628B93BE-A60D-D94E-8D4E-70DBF2037BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9500" yWindow="5520" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
   <si>
     <t>xF</t>
   </si>
@@ -68,6 +78,12 @@
   </si>
   <si>
     <t>xF_max</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>&lt;y&gt;</t>
   </si>
 </sst>
 </file>
@@ -546,15 +562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M2" sqref="M2:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,8 +607,14 @@
       <c r="L1" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.20703099999999999</v>
       </c>
@@ -629,8 +651,16 @@
       <c r="L2">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>ASINH(A2*F2/(2*E2))</f>
+        <v>3.1479048421704641</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGE(M1:M14)</f>
+        <v>3.0449149982765396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.20703099999999999</v>
       </c>
@@ -667,8 +697,12 @@
       <c r="L3">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M14" si="0">ASINH(A3*F3/(2*E3))</f>
+        <v>2.9220280348251717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.20703099999999999</v>
       </c>
@@ -705,8 +739,12 @@
       <c r="L4">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>2.743362112595213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.20703099999999999</v>
       </c>
@@ -743,8 +781,12 @@
       <c r="L5">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>2.6100322167840955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>0.26452799999999999</v>
       </c>
@@ -781,8 +823,12 @@
       <c r="L6">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>3.4108756365390769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>0.26452799999999999</v>
       </c>
@@ -819,8 +865,12 @@
       <c r="L7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>3.1492494051469517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>0.26452799999999999</v>
       </c>
@@ -857,8 +907,12 @@
       <c r="L8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>2.9603373708747136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>0.26452799999999999</v>
       </c>
@@ -895,8 +949,12 @@
       <c r="L9">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>2.8010745628462552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.32481599999999999</v>
       </c>
@@ -933,8 +991,12 @@
       <c r="L10">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>3.6081912866653387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.32481599999999999</v>
       </c>
@@ -971,8 +1033,12 @@
       <c r="L11">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>3.3644473738752607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.32481599999999999</v>
       </c>
@@ -1009,8 +1075,12 @@
       <c r="L12">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>3.1613548215018548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.32481599999999999</v>
       </c>
@@ -1047,8 +1117,12 @@
       <c r="L13">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>2.9593684971040819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.32481599999999999</v>
       </c>
@@ -1085,11 +1159,15 @@
       <c r="L14">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>2.7456688166665346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">

--- a/database/AN_pp/expdata/3002.xlsx
+++ b/database/AN_pp/expdata/3002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628B93BE-A60D-D94E-8D4E-70DBF2037BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02062BB4-4260-964A-9893-18B60C4ACCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="5520" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12960" yWindow="5220" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
   <si>
     <t>xF</t>
   </si>
@@ -84,13 +84,22 @@
   </si>
   <si>
     <t>&lt;y&gt;</t>
+  </si>
+  <si>
+    <t>Dependence</t>
+  </si>
+  <si>
+    <t>pTmin</t>
+  </si>
+  <si>
+    <t>pTmax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +117,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -224,6 +240,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,15 +588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M14"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,8 +639,20 @@
       <c r="N1" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.20703099999999999</v>
       </c>
@@ -659,8 +697,20 @@
         <f>AVERAGE(M1:M14)</f>
         <v>3.0449149982765396</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>2</v>
+      </c>
+      <c r="R2" s="12">
+        <v>0.21662999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.20703099999999999</v>
       </c>
@@ -701,8 +751,20 @@
         <f t="shared" ref="M3:M14" si="0">ASINH(A3*F3/(2*E3))</f>
         <v>2.9220280348251717</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="R3" s="14">
+        <v>0.21743199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.20703099999999999</v>
       </c>
@@ -743,8 +805,20 @@
         <f t="shared" si="0"/>
         <v>2.743362112595213</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>3</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0.226268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.20703099999999999</v>
       </c>
@@ -785,8 +859,20 @@
         <f t="shared" si="0"/>
         <v>2.6100322167840955</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>4</v>
+      </c>
+      <c r="R5" s="15">
+        <v>0.234873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>0.26452799999999999</v>
       </c>
@@ -827,8 +913,20 @@
         <f t="shared" si="0"/>
         <v>3.4108756365390769</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>2</v>
+      </c>
+      <c r="R6" s="12">
+        <v>0.26707799999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>0.26452799999999999</v>
       </c>
@@ -869,8 +967,20 @@
         <f t="shared" si="0"/>
         <v>3.1492494051469517</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0.262743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>0.26452799999999999</v>
       </c>
@@ -911,8 +1021,20 @@
         <f t="shared" si="0"/>
         <v>2.9603373708747136</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>3</v>
+      </c>
+      <c r="R8" s="14">
+        <v>0.26516000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>0.26452799999999999</v>
       </c>
@@ -953,8 +1075,20 @@
         <f t="shared" si="0"/>
         <v>2.8010745628462552</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>4</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0.27227699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.32481599999999999</v>
       </c>
@@ -995,8 +1129,20 @@
         <f t="shared" si="0"/>
         <v>3.6081912866653387</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>2</v>
+      </c>
+      <c r="R10" s="16">
+        <v>0.33018599999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.32481599999999999</v>
       </c>
@@ -1037,8 +1183,20 @@
         <f t="shared" si="0"/>
         <v>3.3644473738752607</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="R11" s="17">
+        <v>0.33145400000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.32481599999999999</v>
       </c>
@@ -1079,8 +1237,20 @@
         <f t="shared" si="0"/>
         <v>3.1613548215018548</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>3</v>
+      </c>
+      <c r="R12" s="17">
+        <v>0.32434299999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.32481599999999999</v>
       </c>
@@ -1121,8 +1291,20 @@
         <f t="shared" si="0"/>
         <v>2.9593684971040819</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>4</v>
+      </c>
+      <c r="R13" s="17">
+        <v>0.32471899999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.32481599999999999</v>
       </c>
@@ -1163,12 +1345,25 @@
         <f t="shared" si="0"/>
         <v>2.7456688166665346</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>5</v>
+      </c>
+      <c r="R14" s="19">
+        <v>0.337366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
+      <c r="R16" s="20"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
